--- a/doc/Book1.xlsx
+++ b/doc/Book1.xlsx
@@ -73,7 +73,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -82,7 +82,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="fr-FR"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
@@ -95,8 +95,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23356933508311462"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.23356933508311467"/>
+          <c:y val="2.777777777777779E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -358,12 +358,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="60371328"/>
-        <c:axId val="56511104"/>
+        <c:axId val="91882240"/>
+        <c:axId val="91884160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60371328"/>
+        <c:axId val="91882240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,7 +374,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="fr-FR"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
@@ -392,12 +391,22 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56511104"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="fr-FR"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91884160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56511104"/>
+        <c:axId val="91884160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +420,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="fr-FR"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
@@ -429,7 +438,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60371328"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="fr-FR"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91882240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -437,12 +456,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="fr-FR"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -453,15 +482,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
